--- a/家計簿アプリ テーブル設計.xlsx
+++ b/家計簿アプリ テーブル設計.xlsx
@@ -6,8 +6,9 @@
     <sheet state="visible" name="user" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="outcome" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="income" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="category" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="category_実際の値" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="budget" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="category" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="category_実際の値" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>カラム名</t>
   </si>
@@ -110,6 +111,21 @@
   </si>
   <si>
     <t>その収入に対するコメント（任意）。</t>
+  </si>
+  <si>
+    <t>1つ1つの予算に割り振られるID。</t>
+  </si>
+  <si>
+    <t>外部キー</t>
+  </si>
+  <si>
+    <t>userテーブルのidに紐づく。</t>
+  </si>
+  <si>
+    <t>categoryテーブルのflag = 1のIDに紐づく。</t>
+  </si>
+  <si>
+    <t>あるユーザのあるカテゴリに対する予算。</t>
   </si>
   <si>
     <t>カテゴリごとに割り当てられるID。</t>
@@ -283,6 +299,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -796,6 +816,94 @@
     <col customWidth="1" min="2" max="2" width="19.0"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="81.25"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="6.25"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="15.88"/>
+    <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="5" max="5" width="80.38"/>
   </cols>
   <sheetData>
@@ -824,12 +932,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -838,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -881,19 +989,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -904,7 +1012,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>1.0</v>
@@ -913,7 +1021,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -924,7 +1032,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>2.0</v>
@@ -933,7 +1041,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -944,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>3.0</v>
@@ -953,7 +1061,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +1072,7 @@
         <v>0.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2">
         <v>4.0</v>
@@ -973,7 +1081,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -984,7 +1092,7 @@
         <v>0.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>5.0</v>
@@ -993,7 +1101,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1004,7 +1112,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1015,7 +1123,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -1026,7 +1134,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1037,7 +1145,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -1048,7 +1156,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1059,7 +1167,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1070,7 +1178,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1081,7 +1189,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
